--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/HETEROGENEITY/Inputs/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{72EE129A-1A2A-9044-8419-07230217D9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D4F02D7-904D-3242-B840-20BFFB6ADD7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C5146-8FC6-7C43-8272-942C6D09C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
+    <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId2"/>
+    <sheet name="Include_codes_icd9" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
   <si>
     <t>Label</t>
   </si>
@@ -398,9 +400,6 @@
     <t>Ischaemic heart</t>
   </si>
   <si>
-    <t>CKD, Chronic kidney disease</t>
-  </si>
-  <si>
     <t>bronchial</t>
   </si>
   <si>
@@ -521,9 +520,6 @@
     <t>Coronary artery disease</t>
   </si>
   <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>coronay heart disease</t>
   </si>
   <si>
@@ -651,13 +647,112 @@
   </si>
   <si>
     <t>phobic neurosis</t>
+  </si>
+  <si>
+    <t>ANGINA PECTORIS</t>
+  </si>
+  <si>
+    <t>CORONARY ATHEROSCLEROSIS</t>
+  </si>
+  <si>
+    <t>ANEURYSM OF HEART</t>
+  </si>
+  <si>
+    <t>ISCHAEMIA, MYOCARDIAL (CHRONIC)</t>
+  </si>
+  <si>
+    <t>HYPERTENSIVE HEART DISEASE</t>
+  </si>
+  <si>
+    <t>MALIGNANT HYPERTENSIVE HEART DISEASE</t>
+  </si>
+  <si>
+    <t>BENIGN HYPERTENSIVE HEART DISEASE</t>
+  </si>
+  <si>
+    <t>HYPERTENSIVE HEART DISEASE NOT SPECIFIED</t>
+  </si>
+  <si>
+    <t>HYPERTENSIVE RENAL DISEASE</t>
+  </si>
+  <si>
+    <t>MALIGNANT HYPERTENSIVE RENAL DISEASE</t>
+  </si>
+  <si>
+    <t>BENIGN HYPERTENSIVE RENAL DISEASE</t>
+  </si>
+  <si>
+    <t>HYPERTENSIVE RENAL DISEASE NOT SPECIFIED</t>
+  </si>
+  <si>
+    <t>HYPERTENSIVE HEART AND RENAL DISEASE</t>
+  </si>
+  <si>
+    <t>MALIGNANT HYPERTENSIVE HEART AND RENAL DISEASE</t>
+  </si>
+  <si>
+    <t>BENIGN HYPERTENSIVE HEART AND RENAL DISEASE</t>
+  </si>
+  <si>
+    <t>HYPERTENSIVE HEART AND RENAL DISEASE NOT SPECIFIED</t>
+  </si>
+  <si>
+    <t>CHRONIC AIRWAYS OBSTRUCTION, NOT ELSEWHERE CLASSIFIED</t>
+  </si>
+  <si>
+    <t>CHRONIC RENAL FAILURE</t>
+  </si>
+  <si>
+    <t>Code1</t>
+  </si>
+  <si>
+    <t>Code2</t>
+  </si>
+  <si>
+    <t>Code3</t>
+  </si>
+  <si>
+    <t>Code4</t>
+  </si>
+  <si>
+    <t>Code5</t>
+  </si>
+  <si>
+    <t>Code6</t>
+  </si>
+  <si>
+    <t>Code7</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>7150</t>
+  </si>
+  <si>
+    <t>7151</t>
+  </si>
+  <si>
+    <t>7152</t>
+  </si>
+  <si>
+    <t>7153</t>
+  </si>
+  <si>
+    <t>7158</t>
+  </si>
+  <si>
+    <t>7159</t>
+  </si>
+  <si>
+    <t>9457E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,6 +808,11 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -752,7 +852,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -770,6 +870,23 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1086,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F68461-33BF-1243-84F8-416A85DF0858}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="D8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1147,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1178,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1201,13 +1318,13 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1224,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1241,10 +1358,10 @@
         <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1261,10 +1378,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1281,22 +1398,22 @@
         <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
         <v>132</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1313,16 +1430,16 @@
         <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1339,10 +1456,10 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1353,7 +1470,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>44</v>
@@ -1362,7 +1479,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1411,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1428,18 +1545,18 @@
         <v>94</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
         <v>145</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>91</v>
@@ -1453,8 +1570,11 @@
       <c r="E16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="F16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1468,16 +1588,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -1491,16 +1611,16 @@
         <v>46</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
@@ -1511,7 +1631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:18">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -1525,13 +1645,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
@@ -1545,16 +1665,16 @@
         <v>47</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" t="s">
         <v>157</v>
       </c>
-      <c r="G21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="4" t="s">
         <v>12</v>
       </c>
@@ -1568,10 +1688,10 @@
         <v>12</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1594,16 +1714,25 @@
         <v>48</v>
       </c>
       <c r="H23" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" t="s">
         <v>160</v>
       </c>
-      <c r="I23" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="J23" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1620,10 +1749,46 @@
         <v>50</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>207</v>
+      </c>
+      <c r="H24" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>215</v>
+      </c>
+      <c r="P24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>217</v>
+      </c>
+      <c r="R24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +1811,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:18">
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
@@ -1671,8 +1836,11 @@
       <c r="H26" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="I26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1686,13 +1854,13 @@
         <v>16</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:18">
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
@@ -1720,30 +1888,30 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1757,10 +1925,10 @@
         <v>20</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -1774,10 +1942,10 @@
         <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1794,19 +1962,19 @@
         <v>87</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1820,19 +1988,19 @@
         <v>80</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="H34" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1849,10 +2017,10 @@
         <v>23</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1869,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1903,13 +2071,13 @@
         <v>39</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1926,10 +2094,10 @@
         <v>54</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1946,13 +2114,13 @@
         <v>25</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="G40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1992,13 +2160,13 @@
         <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" t="s">
         <v>195</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2021,13 +2189,13 @@
         <v>64</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="I43" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2061,7 +2229,7 @@
         <v>67</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2078,10 +2246,10 @@
         <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2118,8 +2286,1551 @@
         <v>112</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="9">
+        <v>9920</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="10">
+        <v>9757</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
+  <dimension ref="A1:O50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C5146-8FC6-7C43-8272-942C6D09C2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE34C2-533B-6D48-9E9F-EE041CDDE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="2" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
     <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId2"/>
-    <sheet name="Include_codes_icd9" sheetId="3" r:id="rId3"/>
+    <sheet name="Include_code_icd9" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="290">
   <si>
     <t>Label</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Urolithiasis</t>
   </si>
   <si>
-    <t>Anaemia</t>
-  </si>
-  <si>
     <t>Epilepsy</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Panic attacks</t>
   </si>
   <si>
-    <t>Panic</t>
-  </si>
-  <si>
     <t>Mania</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>Central Nervous</t>
   </si>
   <si>
-    <t>Blood</t>
-  </si>
-  <si>
     <t>Blood and immune</t>
   </si>
   <si>
@@ -349,21 +340,6 @@
     <t>Joint</t>
   </si>
   <si>
-    <t>Arthritis</t>
-  </si>
-  <si>
-    <t>Rheumatoid</t>
-  </si>
-  <si>
-    <t>Gout</t>
-  </si>
-  <si>
-    <t>Lupus</t>
-  </si>
-  <si>
-    <t>Psoriatic Arthritis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Musculoskeletal </t>
   </si>
   <si>
@@ -508,9 +484,6 @@
     <t>obstructive sleep apnea</t>
   </si>
   <si>
-    <t>OSA</t>
-  </si>
-  <si>
     <t>Sleep apnea</t>
   </si>
   <si>
@@ -607,9 +580,6 @@
     <t>anxiety attack</t>
   </si>
   <si>
-    <t>PTSD</t>
-  </si>
-  <si>
     <t>obsessive-compulsive</t>
   </si>
   <si>
@@ -746,13 +716,205 @@
   </si>
   <si>
     <t>9457E</t>
+  </si>
+  <si>
+    <t>3311</t>
+  </si>
+  <si>
+    <t>3312</t>
+  </si>
+  <si>
+    <t>3330</t>
+  </si>
+  <si>
+    <t>3321A</t>
+  </si>
+  <si>
+    <t>8550E</t>
+  </si>
+  <si>
+    <t>9364E</t>
+  </si>
+  <si>
+    <t>936E</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>9664</t>
+  </si>
+  <si>
+    <t>2950</t>
+  </si>
+  <si>
+    <t>2951</t>
+  </si>
+  <si>
+    <t>2953</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>2959</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>2970</t>
+  </si>
+  <si>
+    <t>2971</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>2978</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>2983</t>
+  </si>
+  <si>
+    <t>2984</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>V052</t>
+  </si>
+  <si>
+    <t>V752</t>
+  </si>
+  <si>
+    <t>2960</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>2963</t>
+  </si>
+  <si>
+    <t>2964</t>
+  </si>
+  <si>
+    <t>2965</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>V16</t>
+  </si>
+  <si>
+    <t>V76</t>
+  </si>
+  <si>
+    <t>9757</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>RHEUMATOID ARTHRITIS</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis</t>
+  </si>
+  <si>
+    <t>6343</t>
+  </si>
+  <si>
+    <t>6353</t>
+  </si>
+  <si>
+    <t>6363</t>
+  </si>
+  <si>
+    <t>6373</t>
+  </si>
+  <si>
+    <t>6383</t>
+  </si>
+  <si>
+    <t>Anaemi</t>
+  </si>
+  <si>
+    <t>Anemi</t>
+  </si>
+  <si>
+    <t>797</t>
+  </si>
+  <si>
+    <t>9393E</t>
+  </si>
+  <si>
+    <t>9693</t>
+  </si>
+  <si>
+    <t>Panic attack</t>
+  </si>
+  <si>
+    <t>panic disorder</t>
+  </si>
+  <si>
+    <t>3122</t>
+  </si>
+  <si>
+    <t>3130</t>
+  </si>
+  <si>
+    <t>CKD, Chronic kidney disease</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -791,13 +953,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -812,6 +967,18 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -829,12 +996,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -847,12 +1015,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -865,32 +1032,21 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1203,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F68461-33BF-1243-84F8-416A85DF0858}">
-  <dimension ref="A1:R48"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1223,31 +1379,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1255,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1272,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -1286,19 +1442,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1306,25 +1462,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>115</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1332,36 +1491,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1369,77 +1528,77 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1447,208 +1606,202 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>144</v>
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>220</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>91</v>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>11</v>
+      <c r="E19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>154</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1656,276 +1809,285 @@
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" t="s">
-        <v>157</v>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>158</v>
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I22" t="s">
+        <v>199</v>
+      </c>
+      <c r="J22" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>205</v>
+      </c>
+      <c r="P22" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>207</v>
+      </c>
+      <c r="R22" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" t="s">
-        <v>160</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="K23" t="s">
-        <v>204</v>
-      </c>
-      <c r="L23" t="s">
-        <v>205</v>
-      </c>
-      <c r="M23" t="s">
-        <v>206</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" t="s">
-        <v>207</v>
-      </c>
-      <c r="H24" t="s">
-        <v>208</v>
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I24" t="s">
         <v>209</v>
       </c>
-      <c r="J24" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" t="s">
-        <v>212</v>
-      </c>
-      <c r="M24" t="s">
-        <v>213</v>
-      </c>
-      <c r="N24" t="s">
-        <v>214</v>
-      </c>
-      <c r="O24" t="s">
-        <v>215</v>
-      </c>
-      <c r="P24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>217</v>
-      </c>
-      <c r="R24" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>163</v>
+        <v>17</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>173</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>183</v>
+        <v>20</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>166</v>
+        <v>20</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -1933,360 +2095,325 @@
         <v>21</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="1" t="s">
         <v>169</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="F33" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>181</v>
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="4" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" t="s">
-        <v>52</v>
+        <v>285</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="G38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>189</v>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="4" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G40" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="4" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G42" t="s">
-        <v>195</v>
+        <v>64</v>
+      </c>
+      <c r="E42" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="4" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>197</v>
+        <v>65</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" t="s">
-        <v>65</v>
+        <v>25</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>199</v>
+      <c r="F45" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="4" t="s">
-        <v>27</v>
+      <c r="A47" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>200</v>
+        <v>95</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2316,570 +2443,443 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
-        <v>11</v>
+      <c r="A19" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>9920</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9757</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="9">
-        <v>9920</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="10">
-        <v>9757</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" t="s">
+        <v>230</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="C32" s="1"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7792</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-    </row>
-    <row r="35" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" t="s">
+        <v>283</v>
+      </c>
+      <c r="D36" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
+      <c r="B38" t="s">
+        <v>287</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
+      <c r="B42" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="12" t="s">
+        <v>274</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2889,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:H29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2903,934 +2903,504 @@
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-    </row>
-    <row r="6" spans="1:15">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="16" t="s">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="B21" s="1"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>228</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" t="s">
-        <v>233</v>
-      </c>
-      <c r="H29" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+        <v>227</v>
+      </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="s">
+        <v>246</v>
+      </c>
+      <c r="N32" t="s">
+        <v>247</v>
+      </c>
+      <c r="O32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-    </row>
-    <row r="34" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>263</v>
+      </c>
+      <c r="H34" t="s">
+        <v>264</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-    </row>
-    <row r="36" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="4" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" t="s">
+        <v>256</v>
+      </c>
+      <c r="F39" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="4" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-    </row>
-    <row r="46" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47">
+        <v>7193</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADE34C2-533B-6D48-9E9F-EE041CDDE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="7760" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
     <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId2"/>
     <sheet name="Include_code_icd9" sheetId="3" r:id="rId3"/>
+    <sheet name="Include_code_mhq" sheetId="5" r:id="rId4"/>
+    <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="291">
   <si>
     <t>Label</t>
   </si>
@@ -908,6 +910,9 @@
   </si>
   <si>
     <t>CKD, Chronic kidney disease</t>
+  </si>
+  <si>
+    <t>Anxiety or GAD (not inc. social anxiety)</t>
   </si>
 </sst>
 </file>
@@ -1361,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F68461-33BF-1243-84F8-416A85DF0858}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2313,7 +2318,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>82</v>
@@ -2426,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3406,4 +3411,561 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177BC3E9-4298-684C-AB70-86CA7BD984DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7760" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Include_code_icd9" sheetId="3" r:id="rId3"/>
     <sheet name="Include_code_mhq" sheetId="5" r:id="rId4"/>
     <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId5"/>
+    <sheet name="Include_code_icd10" sheetId="6" r:id="rId6"/>
+    <sheet name="Exclude_code_icd10" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -3697,7 +3699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3968,4 +3970,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6BE6B-690D-F643-9B7A-007E289EC68E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE6AF3D-2E9A-764F-8B3F-674C4B609DBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177BC3E9-4298-684C-AB70-86CA7BD984DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DF355A-BCBF-C74F-88C5-C615B9556201}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="960" yWindow="760" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="291">
   <si>
     <t>Label</t>
   </si>
@@ -1368,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F68461-33BF-1243-84F8-416A85DF0858}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1415,1015 +1415,1019 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="F4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>280</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>281</v>
+        <v>125</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>119</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
+        <v>161</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>134</v>
+        <v>67</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>135</v>
+        <v>191</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>210</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>88</v>
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>140</v>
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>186</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>171</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G25" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H25" t="s">
         <v>150</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I25" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J25" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K25" t="s">
         <v>194</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L25" t="s">
         <v>195</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" t="s">
-        <v>197</v>
-      </c>
-      <c r="H22" t="s">
-        <v>198</v>
-      </c>
-      <c r="I22" t="s">
-        <v>199</v>
-      </c>
-      <c r="J22" t="s">
-        <v>200</v>
-      </c>
-      <c r="K22" t="s">
-        <v>201</v>
-      </c>
-      <c r="L22" t="s">
-        <v>202</v>
-      </c>
-      <c r="M22" t="s">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s">
-        <v>204</v>
-      </c>
-      <c r="O22" t="s">
-        <v>205</v>
-      </c>
-      <c r="P22" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>207</v>
-      </c>
-      <c r="R22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="4" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:18">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>184</v>
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="H40" t="s">
+        <v>198</v>
+      </c>
+      <c r="I40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>201</v>
+      </c>
+      <c r="L40" t="s">
+        <v>202</v>
+      </c>
+      <c r="M40" t="s">
+        <v>203</v>
+      </c>
+      <c r="N40" t="s">
+        <v>204</v>
+      </c>
+      <c r="O40" t="s">
+        <v>205</v>
+      </c>
+      <c r="P40" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>207</v>
+      </c>
+      <c r="R40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="12" t="s">
-        <v>274</v>
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>273</v>
+        <v>81</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2431,464 +2435,610 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1">
+        <v>7792</v>
+      </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="8">
-        <v>9920</v>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9757</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9920</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" t="s">
-        <v>230</v>
-      </c>
-      <c r="D30" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" t="s">
-        <v>233</v>
-      </c>
-      <c r="G30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="7"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1">
-        <v>7792</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" t="s">
-        <v>270</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9757</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>287</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" t="s">
-        <v>251</v>
-      </c>
-      <c r="D39" t="s">
-        <v>252</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>288</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="12" t="s">
-        <v>274</v>
-      </c>
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2896,520 +3046,666 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:15">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>249</v>
+      </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" t="s">
+        <v>239</v>
+      </c>
+      <c r="H23" t="s">
+        <v>240</v>
+      </c>
+      <c r="I23" t="s">
+        <v>241</v>
+      </c>
+      <c r="J23" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" t="s">
+        <v>243</v>
+      </c>
+      <c r="L23" t="s">
+        <v>244</v>
+      </c>
+      <c r="M23" t="s">
+        <v>245</v>
+      </c>
+      <c r="N23" t="s">
+        <v>246</v>
+      </c>
+      <c r="O23" t="s">
+        <v>247</v>
+      </c>
+      <c r="P23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="4" t="s">
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" t="s">
-        <v>226</v>
-      </c>
-      <c r="D29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" t="s">
-        <v>236</v>
-      </c>
-      <c r="D32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E32" t="s">
-        <v>238</v>
-      </c>
-      <c r="F32" t="s">
-        <v>239</v>
-      </c>
-      <c r="G32" t="s">
-        <v>240</v>
-      </c>
-      <c r="H32" t="s">
-        <v>241</v>
-      </c>
-      <c r="I32" t="s">
-        <v>242</v>
-      </c>
-      <c r="J32" t="s">
-        <v>243</v>
-      </c>
-      <c r="K32" t="s">
-        <v>244</v>
-      </c>
-      <c r="L32" t="s">
-        <v>245</v>
-      </c>
-      <c r="M32" t="s">
-        <v>246</v>
-      </c>
-      <c r="N32" t="s">
-        <v>247</v>
-      </c>
-      <c r="O32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>249</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
         <v>258</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D38" t="s">
         <v>259</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E38" t="s">
         <v>260</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F38" t="s">
         <v>261</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G38" t="s">
         <v>262</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H38" t="s">
         <v>263</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I38" t="s">
         <v>264</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J38" t="s">
         <v>265</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K38" t="s">
         <v>266</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L38" t="s">
         <v>267</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M38" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:13">
       <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>253</v>
-      </c>
-      <c r="C39" t="s">
-        <v>254</v>
-      </c>
-      <c r="D39" t="s">
-        <v>255</v>
-      </c>
-      <c r="E39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F39" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="1:12">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:12">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:12">
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47">
-        <v>7193</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3417,581 +3713,1903 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
         <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
-        <v>274</v>
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
-        <v>21</v>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>83</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>40</v>
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
-        <v>274</v>
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F6BE6B-690D-F643-9B7A-007E289EC68E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:I47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE6AF3D-2E9A-764F-8B3F-674C4B609DBF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+    <sortCondition ref="B2:B47"/>
+    <sortCondition ref="A2:A47"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70DF355A-BCBF-C74F-88C5-C615B9556201}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16713615-7CA2-F64B-A9C1-22A04DC64A21}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="760" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="291">
   <si>
     <t>Label</t>
   </si>
@@ -2435,608 +2435,465 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
+      <c r="B10" t="s">
+        <v>229</v>
       </c>
       <c r="C10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
+      <c r="B17" t="s">
+        <v>250</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
-      </c>
-      <c r="E17" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19" s="1">
         <v>7792</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="C19" s="1"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B20" t="s">
         <v>287</v>
       </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
+      <c r="B22" t="s">
+        <v>282</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D22" t="s">
-        <v>283</v>
-      </c>
-      <c r="E22" t="s">
         <v>284</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="B25" s="1"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="B26" s="8">
         <v>9920</v>
       </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
+      <c r="B31" t="s">
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F31" t="s">
-        <v>278</v>
-      </c>
-      <c r="G31" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
+      <c r="B35" t="s">
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D35" t="s">
         <v>271</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="1">
+      <c r="C37" s="1">
         <v>9757</v>
       </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
+      <c r="B38" t="s">
+        <v>269</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="B40" s="1"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="B44" s="1"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3046,664 +2903,521 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
+      <c r="B6" t="s">
+        <v>228</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:16">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
+      <c r="B17" t="s">
+        <v>253</v>
       </c>
       <c r="C17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F17" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:16">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B19" t="s">
         <v>249</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="C19" s="1"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:16">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:16">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:16">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
+      <c r="B23" t="s">
+        <v>235</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D23" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H23" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I23" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>247</v>
-      </c>
-      <c r="P23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:15">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="B25" s="1"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:16">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:16">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
         <v>7193</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="B34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
+      <c r="B38" t="s">
+        <v>258</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L38" t="s">
-        <v>267</v>
-      </c>
-      <c r="M38" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="B40" s="1"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
+      <c r="B41" t="s">
+        <v>218</v>
       </c>
       <c r="C41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" t="s">
-        <v>223</v>
-      </c>
-      <c r="I41" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="B44" s="1"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
+      <c r="B45" t="s">
+        <v>226</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3713,424 +3427,281 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:8" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4139,421 +3710,278 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:I47"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:8" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+    </row>
+    <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+    </row>
+    <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+    </row>
+    <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    </row>
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+    </row>
+    <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+    </row>
+    <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4562,526 +3990,383 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:I47"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:8" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="B25" s="1"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="11"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="B40" s="1"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="B44" s="1"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5090,524 +4375,379 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:8" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="B7" s="1"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="B25" s="1"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="B40" s="1"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="B44" s="1"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="B46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
-    <sortCondition ref="B2:B47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,19 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16713615-7CA2-F64B-A9C1-22A04DC64A21}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A047AFA-BC07-7D41-80E0-8F6B2E41FF37}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="760" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
-    <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId2"/>
-    <sheet name="Include_code_icd9" sheetId="3" r:id="rId3"/>
-    <sheet name="Include_code_mhq" sheetId="5" r:id="rId4"/>
-    <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId5"/>
-    <sheet name="Include_code_icd10" sheetId="6" r:id="rId6"/>
-    <sheet name="Exclude_code_icd10" sheetId="7" r:id="rId7"/>
+    <sheet name="Include_code_icd9" sheetId="3" r:id="rId2"/>
+    <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId3"/>
+    <sheet name="Include_code_icd10" sheetId="6" r:id="rId4"/>
+    <sheet name="Exclude_code_icd10" sheetId="7" r:id="rId5"/>
+    <sheet name="Include_code_mhq" sheetId="5" r:id="rId6"/>
+    <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="B21.0" localSheetId="3">Include_code_icd10!$B$37</definedName>
+    <definedName name="G21.0" localSheetId="4">Exclude_code_icd10!$C$9</definedName>
+    <definedName name="J44.0" localSheetId="3">Include_code_icd10!$C$36</definedName>
+    <definedName name="J44.1" localSheetId="3">Include_code_icd10!$D$36</definedName>
+    <definedName name="L21.0" localSheetId="3">Include_code_icd10!$B$45</definedName>
+    <definedName name="M15.0" localSheetId="3">Include_code_icd10!$C$40</definedName>
+    <definedName name="M15.1" localSheetId="3">Include_code_icd10!$D$40</definedName>
+    <definedName name="M15.8" localSheetId="3">Include_code_icd10!$H$40</definedName>
+    <definedName name="M17.0" localSheetId="3">Include_code_icd10!$U$40</definedName>
+    <definedName name="M17.2" localSheetId="3">Include_code_icd10!$W$40</definedName>
+    <definedName name="M17.4" localSheetId="3">Include_code_icd10!$Y$40</definedName>
+    <definedName name="M17.9" localSheetId="3">Include_code_icd10!$AA$40</definedName>
+    <definedName name="M19.2" localSheetId="3">Include_code_icd10!$AM$40</definedName>
+    <definedName name="M47.2" localSheetId="3">Include_code_icd10!$E$26</definedName>
+    <definedName name="P70.2" localSheetId="3">Include_code_icd10!$B$43</definedName>
+    <definedName name="P70.3" localSheetId="4">Exclude_code_icd10!$E$43</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="463">
   <si>
     <t>Label</t>
   </si>
@@ -53,9 +71,6 @@
     <t>Emphysema</t>
   </si>
   <si>
-    <t>Atherosclerosis</t>
-  </si>
-  <si>
     <t>Anemia</t>
   </si>
   <si>
@@ -68,9 +83,6 @@
     <t>Hepatitis</t>
   </si>
   <si>
-    <t>Arthropathies</t>
-  </si>
-  <si>
     <t>Dorsopathies</t>
   </si>
   <si>
@@ -314,15 +326,9 @@
     <t>Cardiovascular</t>
   </si>
   <si>
-    <t>Arteries</t>
-  </si>
-  <si>
     <t>Renal failure</t>
   </si>
   <si>
-    <t>Lungs</t>
-  </si>
-  <si>
     <t>Pancreas</t>
   </si>
   <si>
@@ -383,12 +389,6 @@
     <t>bronchial</t>
   </si>
   <si>
-    <t>arteriosclerosis</t>
-  </si>
-  <si>
-    <t>atherosclerotic</t>
-  </si>
-  <si>
     <t>Tired blood</t>
   </si>
   <si>
@@ -915,13 +915,547 @@
   </si>
   <si>
     <t>Anxiety or GAD (not inc. social anxiety)</t>
+  </si>
+  <si>
+    <t>Z03.4</t>
+  </si>
+  <si>
+    <t>Z82.4</t>
+  </si>
+  <si>
+    <t>R03.0</t>
+  </si>
+  <si>
+    <t>I65</t>
+  </si>
+  <si>
+    <t>I66</t>
+  </si>
+  <si>
+    <t>T67.0</t>
+  </si>
+  <si>
+    <t>Z82.3</t>
+  </si>
+  <si>
+    <t>T48.6</t>
+  </si>
+  <si>
+    <t>Y55.6</t>
+  </si>
+  <si>
+    <t>Z82.5</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>I50</t>
+  </si>
+  <si>
+    <t>J44</t>
+  </si>
+  <si>
+    <t>J44.0</t>
+  </si>
+  <si>
+    <t>J44.1</t>
+  </si>
+  <si>
+    <t>J44.8</t>
+  </si>
+  <si>
+    <t>J44.9</t>
+  </si>
+  <si>
+    <t>P70.0</t>
+  </si>
+  <si>
+    <t>P70.1</t>
+  </si>
+  <si>
+    <t>P70.3</t>
+  </si>
+  <si>
+    <t>P70.4</t>
+  </si>
+  <si>
+    <t>P70.8</t>
+  </si>
+  <si>
+    <t>P70.9</t>
+  </si>
+  <si>
+    <t>P70.2</t>
+  </si>
+  <si>
+    <t>T38.3</t>
+  </si>
+  <si>
+    <t>Y42.3</t>
+  </si>
+  <si>
+    <t>Z13.1</t>
+  </si>
+  <si>
+    <t>Z83.3</t>
+  </si>
+  <si>
+    <t>K72</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M15.0</t>
+  </si>
+  <si>
+    <t>M15.1</t>
+  </si>
+  <si>
+    <t>M15.2</t>
+  </si>
+  <si>
+    <t>M15.3</t>
+  </si>
+  <si>
+    <t>M15.4</t>
+  </si>
+  <si>
+    <t>M15.8</t>
+  </si>
+  <si>
+    <t>M15.9</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M16.0</t>
+  </si>
+  <si>
+    <t>M16.1</t>
+  </si>
+  <si>
+    <t>M16.2</t>
+  </si>
+  <si>
+    <t>M16.3</t>
+  </si>
+  <si>
+    <t>M16.4</t>
+  </si>
+  <si>
+    <t>M16.5</t>
+  </si>
+  <si>
+    <t>M16.6</t>
+  </si>
+  <si>
+    <t>M16.7</t>
+  </si>
+  <si>
+    <t>M16.9</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>M17.0</t>
+  </si>
+  <si>
+    <t>M17.1</t>
+  </si>
+  <si>
+    <t>M17.2</t>
+  </si>
+  <si>
+    <t>M17.3</t>
+  </si>
+  <si>
+    <t>M17.4</t>
+  </si>
+  <si>
+    <t>M17.5</t>
+  </si>
+  <si>
+    <t>M17.9</t>
+  </si>
+  <si>
+    <t>M18</t>
+  </si>
+  <si>
+    <t>M18.0</t>
+  </si>
+  <si>
+    <t>M18.1</t>
+  </si>
+  <si>
+    <t>M18.2</t>
+  </si>
+  <si>
+    <t>M18.3</t>
+  </si>
+  <si>
+    <t>M18.4</t>
+  </si>
+  <si>
+    <t>M18.5</t>
+  </si>
+  <si>
+    <t>M18.9</t>
+  </si>
+  <si>
+    <t>M19</t>
+  </si>
+  <si>
+    <t>M19.0</t>
+  </si>
+  <si>
+    <t>M19.1</t>
+  </si>
+  <si>
+    <t>M19.2</t>
+  </si>
+  <si>
+    <t>M19.8</t>
+  </si>
+  <si>
+    <t>M19.9</t>
+  </si>
+  <si>
+    <t>M47.0</t>
+  </si>
+  <si>
+    <t>M47.1</t>
+  </si>
+  <si>
+    <t>M47.2</t>
+  </si>
+  <si>
+    <t>M47.8</t>
+  </si>
+  <si>
+    <t>M47.9</t>
+  </si>
+  <si>
+    <t>M47</t>
+  </si>
+  <si>
+    <t>F05.0</t>
+  </si>
+  <si>
+    <t>G21</t>
+  </si>
+  <si>
+    <t>G21.1</t>
+  </si>
+  <si>
+    <t>G21.2</t>
+  </si>
+  <si>
+    <t>G21.0</t>
+  </si>
+  <si>
+    <t>G21.3</t>
+  </si>
+  <si>
+    <t>G21.4</t>
+  </si>
+  <si>
+    <t>G21.8</t>
+  </si>
+  <si>
+    <t>G21.9</t>
+  </si>
+  <si>
+    <t>G23.2</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T42.8</t>
+  </si>
+  <si>
+    <t>X41</t>
+  </si>
+  <si>
+    <t>X41.0</t>
+  </si>
+  <si>
+    <t>X41.1</t>
+  </si>
+  <si>
+    <t>X41.2</t>
+  </si>
+  <si>
+    <t>X41.3</t>
+  </si>
+  <si>
+    <t>X41.4</t>
+  </si>
+  <si>
+    <t>X41.5</t>
+  </si>
+  <si>
+    <t>X41.6</t>
+  </si>
+  <si>
+    <t>X41.7</t>
+  </si>
+  <si>
+    <t>X41.8</t>
+  </si>
+  <si>
+    <t>X41.9</t>
+  </si>
+  <si>
+    <t>X61</t>
+  </si>
+  <si>
+    <t>X61.0</t>
+  </si>
+  <si>
+    <t>X61.1</t>
+  </si>
+  <si>
+    <t>X61.2</t>
+  </si>
+  <si>
+    <t>X61.3</t>
+  </si>
+  <si>
+    <t>X61.4</t>
+  </si>
+  <si>
+    <t>X61.5</t>
+  </si>
+  <si>
+    <t>X61.6</t>
+  </si>
+  <si>
+    <t>X61.7</t>
+  </si>
+  <si>
+    <t>X61.8</t>
+  </si>
+  <si>
+    <t>X61.9</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y11.0</t>
+  </si>
+  <si>
+    <t>Y11.1</t>
+  </si>
+  <si>
+    <t>Y11.2</t>
+  </si>
+  <si>
+    <t>Y11.3</t>
+  </si>
+  <si>
+    <t>Y11.4</t>
+  </si>
+  <si>
+    <t>Y11.5</t>
+  </si>
+  <si>
+    <t>Y11.6</t>
+  </si>
+  <si>
+    <t>Y11.7</t>
+  </si>
+  <si>
+    <t>Y11.8</t>
+  </si>
+  <si>
+    <t>Y11.9</t>
+  </si>
+  <si>
+    <t>Y46</t>
+  </si>
+  <si>
+    <t>Y46.7</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F31.3</t>
+  </si>
+  <si>
+    <t>F31.4</t>
+  </si>
+  <si>
+    <t>F31.5</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B55.0</t>
+  </si>
+  <si>
+    <t>B55.1</t>
+  </si>
+  <si>
+    <t>B55.2</t>
+  </si>
+  <si>
+    <t>B55.9</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F30.8</t>
+  </si>
+  <si>
+    <t>F30.9</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F63.1</t>
+  </si>
+  <si>
+    <t>F63.2</t>
+  </si>
+  <si>
+    <t>F63.3</t>
+  </si>
+  <si>
+    <t>Z26.0</t>
+  </si>
+  <si>
+    <t>B21.0</t>
+  </si>
+  <si>
+    <t>B21.1</t>
+  </si>
+  <si>
+    <t>B21.2</t>
+  </si>
+  <si>
+    <t>Z03.1</t>
+  </si>
+  <si>
+    <t>Z40.0</t>
+  </si>
+  <si>
+    <t>Z80</t>
+  </si>
+  <si>
+    <t>Z80.0</t>
+  </si>
+  <si>
+    <t>Z80.1</t>
+  </si>
+  <si>
+    <t>Z80.2</t>
+  </si>
+  <si>
+    <t>Z80.3</t>
+  </si>
+  <si>
+    <t>Z80.4</t>
+  </si>
+  <si>
+    <t>Z80.5</t>
+  </si>
+  <si>
+    <t>Z80.7</t>
+  </si>
+  <si>
+    <t>Z80.8</t>
+  </si>
+  <si>
+    <t>Z80.9</t>
+  </si>
+  <si>
+    <t>M07.4</t>
+  </si>
+  <si>
+    <t>M09.1</t>
+  </si>
+  <si>
+    <t>M07.5</t>
+  </si>
+  <si>
+    <t>M09.2</t>
+  </si>
+  <si>
+    <t>L21.0</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>I12.9</t>
+  </si>
+  <si>
+    <t>I12.0</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I13.0</t>
+  </si>
+  <si>
+    <t>I13.1</t>
+  </si>
+  <si>
+    <t>I13.2</t>
+  </si>
+  <si>
+    <t>I13.9</t>
+  </si>
+  <si>
+    <t>O10.2</t>
+  </si>
+  <si>
+    <t>O10.3</t>
+  </si>
+  <si>
+    <t>N08.3</t>
+  </si>
+  <si>
+    <t>Z82.0</t>
+  </si>
+  <si>
+    <t>T43.3</t>
+  </si>
+  <si>
+    <t>T43.5</t>
+  </si>
+  <si>
+    <t>Y49.3</t>
+  </si>
+  <si>
+    <t>Y49.5</t>
+  </si>
+  <si>
+    <t>F50.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -987,6 +1521,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1026,7 +1574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1051,6 +1599,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1366,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F68461-33BF-1243-84F8-416A85DF0858}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1386,31 +1936,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1418,375 +1968,375 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
-        <v>115</v>
+        <v>121</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>281</v>
+        <v>119</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>158</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>190</v>
+        <v>155</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>160</v>
+        <v>141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>147</v>
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>189</v>
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>290</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>187</v>
+        <v>53</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G18" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1794,639 +2344,619 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>180</v>
+        <v>279</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G20" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>179</v>
+        <v>36</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>286</v>
+        <v>171</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>177</v>
+        <v>160</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>170</v>
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>107</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>111</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" t="s">
-        <v>151</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K25" t="s">
-        <v>194</v>
-      </c>
-      <c r="L25" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" t="s">
-        <v>196</v>
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>273</v>
+      <c r="F28" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" t="s">
-        <v>210</v>
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="5" t="s">
         <v>88</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>8</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F31" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
+      <c r="I36" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>175</v>
+        <v>139</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>146</v>
+      </c>
+      <c r="G39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" t="s">
+        <v>192</v>
+      </c>
+      <c r="I39" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" t="s">
+        <v>194</v>
+      </c>
+      <c r="K39" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39" t="s">
+        <v>196</v>
+      </c>
+      <c r="M39" t="s">
+        <v>197</v>
+      </c>
+      <c r="N39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O39" t="s">
+        <v>199</v>
+      </c>
+      <c r="P39" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>201</v>
+      </c>
+      <c r="R39" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G40" t="s">
-        <v>197</v>
-      </c>
-      <c r="H40" t="s">
-        <v>198</v>
-      </c>
-      <c r="I40" t="s">
-        <v>199</v>
-      </c>
-      <c r="J40" t="s">
-        <v>200</v>
-      </c>
-      <c r="K40" t="s">
-        <v>201</v>
-      </c>
-      <c r="L40" t="s">
-        <v>202</v>
-      </c>
-      <c r="M40" t="s">
-        <v>203</v>
-      </c>
-      <c r="N40" t="s">
-        <v>204</v>
-      </c>
-      <c r="O40" t="s">
-        <v>205</v>
-      </c>
-      <c r="P40" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>207</v>
-      </c>
-      <c r="R40" t="s">
-        <v>208</v>
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" t="s">
-        <v>156</v>
+        <v>114</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>154</v>
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>174</v>
+        <v>28</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E45" t="s">
-        <v>157</v>
+        <v>42</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>122</v>
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R47">
-    <sortCondition ref="B2:B47"/>
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R46">
+    <sortCondition ref="B2:B46"/>
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2434,11 +2964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="142" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2454,25 +2984,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2482,419 +3012,465 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" t="s">
-        <v>234</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>288</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+      <c r="E16" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1">
-        <v>7792</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="E22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>233</v>
+      </c>
+      <c r="G22" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J22" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" t="s">
+        <v>238</v>
+      </c>
+      <c r="L22" t="s">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s">
+        <v>240</v>
+      </c>
+      <c r="N22" t="s">
+        <v>241</v>
+      </c>
+      <c r="O22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="8">
-        <v>9920</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27">
+        <v>7193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>275</v>
-      </c>
-      <c r="C31" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" t="s">
-        <v>277</v>
-      </c>
-      <c r="E31" t="s">
-        <v>278</v>
-      </c>
-      <c r="F31" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="1">
-        <v>9757</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>257</v>
+      </c>
+      <c r="H37" t="s">
+        <v>258</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" t="s">
+        <v>215</v>
+      </c>
+      <c r="F40" t="s">
+        <v>216</v>
+      </c>
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="9"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2902,11 +3478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
-  <dimension ref="A1:O47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2922,30 +3498,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2954,471 +3530,407 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:15">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7792</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>235</v>
-      </c>
-      <c r="C23" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" t="s">
-        <v>242</v>
-      </c>
-      <c r="J23" t="s">
-        <v>243</v>
-      </c>
-      <c r="K23" t="s">
-        <v>244</v>
-      </c>
-      <c r="L23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M23" t="s">
-        <v>246</v>
-      </c>
-      <c r="N23" t="s">
-        <v>247</v>
-      </c>
-      <c r="O23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9920</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28">
-        <v>7193</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:15">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:12">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9757</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:12">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" t="s">
-        <v>259</v>
-      </c>
-      <c r="D38" t="s">
-        <v>260</v>
-      </c>
-      <c r="E38" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" t="s">
-        <v>262</v>
-      </c>
-      <c r="G38" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38" t="s">
-        <v>264</v>
-      </c>
-      <c r="I38" t="s">
-        <v>265</v>
-      </c>
-      <c r="J38" t="s">
-        <v>266</v>
-      </c>
-      <c r="K38" t="s">
-        <v>267</v>
-      </c>
-      <c r="L38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" t="s">
-        <v>220</v>
-      </c>
-      <c r="E41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F41" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" t="s">
-        <v>223</v>
-      </c>
-      <c r="H41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" spans="1:12">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:12">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>226</v>
-      </c>
-      <c r="C45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="D46" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3426,11 +3938,1301 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
+  <dimension ref="A1:AS46"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>409</v>
+      </c>
+      <c r="C16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D16" t="s">
+        <v>411</v>
+      </c>
+      <c r="E16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" t="s">
+        <v>419</v>
+      </c>
+      <c r="G16" t="s">
+        <v>420</v>
+      </c>
+      <c r="H16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:45">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:45">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:45">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" t="s">
+        <v>427</v>
+      </c>
+      <c r="D37" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:45">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>446</v>
+      </c>
+      <c r="C39" t="s">
+        <v>448</v>
+      </c>
+      <c r="D39" t="s">
+        <v>447</v>
+      </c>
+      <c r="E39" t="s">
+        <v>449</v>
+      </c>
+      <c r="F39" t="s">
+        <v>450</v>
+      </c>
+      <c r="G39" t="s">
+        <v>453</v>
+      </c>
+      <c r="H39" t="s">
+        <v>454</v>
+      </c>
+      <c r="I39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" t="s">
+        <v>317</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="G40" t="s">
+        <v>319</v>
+      </c>
+      <c r="H40" t="s">
+        <v>320</v>
+      </c>
+      <c r="I40" t="s">
+        <v>321</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="L40" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" t="s">
+        <v>325</v>
+      </c>
+      <c r="N40" t="s">
+        <v>326</v>
+      </c>
+      <c r="O40" t="s">
+        <v>327</v>
+      </c>
+      <c r="P40" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>329</v>
+      </c>
+      <c r="R40" t="s">
+        <v>330</v>
+      </c>
+      <c r="S40" t="s">
+        <v>331</v>
+      </c>
+      <c r="T40" t="s">
+        <v>332</v>
+      </c>
+      <c r="U40" t="s">
+        <v>333</v>
+      </c>
+      <c r="V40" t="s">
+        <v>334</v>
+      </c>
+      <c r="W40" t="s">
+        <v>335</v>
+      </c>
+      <c r="X40" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>340</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>347</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>348</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>350</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>351</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>441</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>442</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>443</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:45">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:45">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C43" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="1:45">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:45">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:45">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
+  <dimension ref="A1:AU46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:47">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" t="s">
+        <v>369</v>
+      </c>
+      <c r="K9" t="s">
+        <v>370</v>
+      </c>
+      <c r="L9" t="s">
+        <v>371</v>
+      </c>
+      <c r="M9" t="s">
+        <v>372</v>
+      </c>
+      <c r="N9" t="s">
+        <v>373</v>
+      </c>
+      <c r="O9" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>376</v>
+      </c>
+      <c r="R9" t="s">
+        <v>377</v>
+      </c>
+      <c r="S9" t="s">
+        <v>378</v>
+      </c>
+      <c r="T9" t="s">
+        <v>379</v>
+      </c>
+      <c r="U9" t="s">
+        <v>380</v>
+      </c>
+      <c r="V9" t="s">
+        <v>381</v>
+      </c>
+      <c r="W9" t="s">
+        <v>382</v>
+      </c>
+      <c r="X9" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>396</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>399</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>401</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>402</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>404</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16" t="s">
+        <v>422</v>
+      </c>
+      <c r="H16" t="s">
+        <v>423</v>
+      </c>
+      <c r="I16" t="s">
+        <v>424</v>
+      </c>
+      <c r="J16" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>458</v>
+      </c>
+      <c r="C21" t="s">
+        <v>459</v>
+      </c>
+      <c r="D21" t="s">
+        <v>460</v>
+      </c>
+      <c r="E21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>407</v>
+      </c>
+      <c r="C22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" t="s">
+        <v>447</v>
+      </c>
+      <c r="D30" t="s">
+        <v>449</v>
+      </c>
+      <c r="E30" t="s">
+        <v>450</v>
+      </c>
+      <c r="F30" t="s">
+        <v>453</v>
+      </c>
+      <c r="G30" t="s">
+        <v>454</v>
+      </c>
+      <c r="H30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>292</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" t="s">
+        <v>430</v>
+      </c>
+      <c r="D37" t="s">
+        <v>431</v>
+      </c>
+      <c r="E37" t="s">
+        <v>432</v>
+      </c>
+      <c r="F37" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" t="s">
+        <v>435</v>
+      </c>
+      <c r="I37" t="s">
+        <v>436</v>
+      </c>
+      <c r="J37" t="s">
+        <v>437</v>
+      </c>
+      <c r="K37" t="s">
+        <v>438</v>
+      </c>
+      <c r="L37" t="s">
+        <v>439</v>
+      </c>
+      <c r="M37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="9"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3443,25 +5245,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3471,85 +5273,85 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3559,161 +5361,156 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
+      <c r="A27" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
+      <c r="A28" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3726,25 +5523,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3754,1001 +5551,230 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
+      <c r="A27" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
+      <c r="A28" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="A2:A47"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="9"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="A2:A47"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
-  <dimension ref="A1:H47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="9"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="13_ncr:1_{EFD40B4E-CDED-7B4E-B2F5-3C8175F54896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A047AFA-BC07-7D41-80E0-8F6B2E41FF37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="33600" windowHeight="20500" activeTab="6" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="463">
   <si>
     <t>Label</t>
   </si>
@@ -1919,7 +1919,7 @@
   <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2967,8 +2967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3332,9 +3332,7 @@
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>297</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3481,8 +3479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3941,7 +3939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5509,7 +5507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D4A7F83-9E04-0A4F-B8E5-8C8063DE3C71}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="9420" yWindow="760" windowWidth="24180" windowHeight="20460" activeTab="4" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="477">
   <si>
     <t>Label</t>
   </si>
@@ -1449,6 +1449,48 @@
   </si>
   <si>
     <t>F50.4</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I23.0</t>
+  </si>
+  <si>
+    <t>I23.1</t>
+  </si>
+  <si>
+    <t>I23.2</t>
+  </si>
+  <si>
+    <t>I23.3</t>
+  </si>
+  <si>
+    <t>I23.4</t>
+  </si>
+  <si>
+    <t>I23.5</t>
+  </si>
+  <si>
+    <t>I23.6</t>
+  </si>
+  <si>
+    <t>I23.8</t>
+  </si>
+  <si>
+    <t>Y44.0</t>
+  </si>
+  <si>
+    <t>Y44.1</t>
+  </si>
+  <si>
+    <t>Y47</t>
+  </si>
+  <si>
+    <t>Y47.8</t>
+  </si>
+  <si>
+    <t>Y47.9</t>
   </si>
 </sst>
 </file>
@@ -2967,7 +3009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -4542,10 +4584,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
-  <dimension ref="A1:AU46"/>
+  <dimension ref="A1:CF46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4553,7 +4595,7 @@
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26">
+    <row r="1" spans="1:84" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4579,16 +4621,20 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:84">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>473</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:84">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -4598,7 +4644,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:84">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -4608,7 +4654,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:84">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4617,7 +4663,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:84">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4626,14 +4672,14 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:84">
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:84">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -4644,7 +4690,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:84">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -4786,8 +4832,119 @@
       <c r="AU9" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="10" spans="1:47">
+      <c r="AV9" t="s">
+        <v>370</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>375</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>377</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>379</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>384</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>389</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>390</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>393</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>394</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>395</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>396</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>399</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>400</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>403</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>404</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>405</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4795,13 +4952,13 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:84">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:84">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -4809,19 +4966,28 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:84">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:84">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:47">
+      <c r="B14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -4830,7 +4996,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:84">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -4862,7 +5028,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -4870,7 +5036,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -4884,14 +5050,14 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -4899,7 +5065,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -4916,7 +5082,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -4930,12 +5096,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -4945,9 +5111,38 @@
       <c r="C24" t="s">
         <v>286</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="D24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" t="s">
+        <v>465</v>
+      </c>
+      <c r="G24" t="s">
+        <v>466</v>
+      </c>
+      <c r="H24" t="s">
+        <v>467</v>
+      </c>
+      <c r="I24" t="s">
+        <v>468</v>
+      </c>
+      <c r="J24" t="s">
+        <v>469</v>
+      </c>
+      <c r="K24" t="s">
+        <v>470</v>
+      </c>
+      <c r="L24" t="s">
+        <v>471</v>
+      </c>
+      <c r="M24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -4964,25 +5159,25 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:13">
       <c r="A27" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -4991,7 +5186,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -5017,7 +5212,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -5026,7 +5221,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -5140,8 +5335,18 @@
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" t="s">
+        <v>444</v>
+      </c>
+      <c r="D40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4" t="s">

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{893B8B5D-EA7E-B14A-8CC5-5027D2B073C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="9420" yWindow="760" windowWidth="24180" windowHeight="20460" activeTab="2" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="477">
   <si>
     <t>Label</t>
   </si>
@@ -1449,13 +1449,55 @@
   </si>
   <si>
     <t>F50.4</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I23.0</t>
+  </si>
+  <si>
+    <t>I23.1</t>
+  </si>
+  <si>
+    <t>I23.2</t>
+  </si>
+  <si>
+    <t>I23.3</t>
+  </si>
+  <si>
+    <t>I23.4</t>
+  </si>
+  <si>
+    <t>I23.5</t>
+  </si>
+  <si>
+    <t>I23.6</t>
+  </si>
+  <si>
+    <t>I23.8</t>
+  </si>
+  <si>
+    <t>Y44.0</t>
+  </si>
+  <si>
+    <t>Y44.1</t>
+  </si>
+  <si>
+    <t>Y47</t>
+  </si>
+  <si>
+    <t>Y47.8</t>
+  </si>
+  <si>
+    <t>Y47.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1535,6 +1577,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1574,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1601,6 +1649,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2967,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="O22" sqref="A22:O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3477,10 +3526,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3491,7 +3540,7 @@
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="26">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3566,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -3526,7 +3575,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -3537,7 +3586,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -3547,28 +3596,28 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -3579,7 +3628,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12" ht="19">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3601,8 +3650,17 @@
       <c r="G9" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
+        <v>966</v>
+      </c>
+      <c r="L9" s="16">
+        <v>9664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3610,13 +3668,13 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -3624,14 +3682,14 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3639,7 +3697,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -3648,7 +3706,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -3939,8 +3997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AS40" sqref="A40:AS40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4542,10 +4600,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
-  <dimension ref="A1:AU46"/>
+  <dimension ref="A1:CF46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="BV23" workbookViewId="0">
+      <selection activeCell="CF9" sqref="A9:CF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4553,7 +4611,7 @@
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="26">
+    <row r="1" spans="1:84" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4579,16 +4637,20 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" spans="1:84">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C2" t="s">
+        <v>473</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" spans="1:84">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -4598,7 +4660,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:47">
+    <row r="4" spans="1:84">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -4608,7 +4670,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:84">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4617,7 +4679,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:47">
+    <row r="6" spans="1:84">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4626,14 +4688,14 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:84">
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:47">
+    <row r="8" spans="1:84">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -4644,7 +4706,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:84">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -4786,8 +4848,119 @@
       <c r="AU9" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="10" spans="1:47">
+      <c r="AV9" t="s">
+        <v>370</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>374</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>375</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>376</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>377</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>379</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>380</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>383</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>384</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>385</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>386</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>388</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>389</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>390</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>391</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>392</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>393</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>394</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>395</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>396</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>398</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>399</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>400</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>401</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>402</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>403</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>404</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>405</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:84">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4795,13 +4968,13 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:47">
+    <row r="11" spans="1:84">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:47">
+    <row r="12" spans="1:84">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -4809,19 +4982,28 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:84">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:84">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:47">
+      <c r="B14" t="s">
+        <v>474</v>
+      </c>
+      <c r="C14" t="s">
+        <v>475</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:84">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -4830,7 +5012,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:84">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -4862,7 +5044,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -4870,7 +5052,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
@@ -4884,14 +5066,14 @@
         <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -4899,7 +5081,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
@@ -4916,7 +5098,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -4930,12 +5112,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -4945,9 +5127,38 @@
       <c r="C24" t="s">
         <v>286</v>
       </c>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="D24" t="s">
+        <v>463</v>
+      </c>
+      <c r="E24" t="s">
+        <v>464</v>
+      </c>
+      <c r="F24" t="s">
+        <v>465</v>
+      </c>
+      <c r="G24" t="s">
+        <v>466</v>
+      </c>
+      <c r="H24" t="s">
+        <v>467</v>
+      </c>
+      <c r="I24" t="s">
+        <v>468</v>
+      </c>
+      <c r="J24" t="s">
+        <v>469</v>
+      </c>
+      <c r="K24" t="s">
+        <v>470</v>
+      </c>
+      <c r="L24" t="s">
+        <v>471</v>
+      </c>
+      <c r="M24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -4964,25 +5175,25 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:13">
       <c r="A27" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:13">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -4991,7 +5202,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -5017,7 +5228,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -5026,7 +5237,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:13">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -5140,8 +5351,18 @@
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C40" t="s">
+        <v>444</v>
+      </c>
+      <c r="D40" t="s">
+        <v>316</v>
+      </c>
+      <c r="E40" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="4" t="s">
@@ -5229,7 +5450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -5507,7 +5728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{893B8B5D-EA7E-B14A-8CC5-5027D2B073C9}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4058F8-EAAF-544C-9DEA-95214BC1BB2D}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="760" windowWidth="24180" windowHeight="20460" activeTab="2" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="34460" windowHeight="20460" firstSheet="2" activeTab="4" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Exclude_code_icd10" sheetId="7" r:id="rId5"/>
     <sheet name="Include_code_mhq" sheetId="5" r:id="rId6"/>
     <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId7"/>
+    <sheet name="Include_code_self" sheetId="8" r:id="rId8"/>
+    <sheet name="Exclude_code_self" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="B21.0" localSheetId="3">Include_code_icd10!$B$37</definedName>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="477">
   <si>
     <t>Label</t>
   </si>
@@ -3528,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3997,8 +3999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
   <dimension ref="A1:AS46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AS40" sqref="A40:AS40"/>
+    <sheetView topLeftCell="AN23" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AV56" sqref="AV56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4600,10 +4602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
-  <dimension ref="A1:CF46"/>
+  <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView topLeftCell="BV23" workbookViewId="0">
-      <selection activeCell="CF9" sqref="A9:CF9"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="AU9" sqref="A9:AU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4611,7 +4613,7 @@
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="26">
+    <row r="1" spans="1:47" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4637,7 +4639,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:84">
+    <row r="2" spans="1:47">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -4650,7 +4652,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:84">
+    <row r="3" spans="1:47">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -4660,7 +4662,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:84">
+    <row r="4" spans="1:47">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -4670,7 +4672,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:84">
+    <row r="5" spans="1:47">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -4679,7 +4681,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:84">
+    <row r="6" spans="1:47">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -4688,14 +4690,14 @@
       </c>
       <c r="C6" s="9"/>
     </row>
-    <row r="7" spans="1:84">
+    <row r="7" spans="1:47">
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:84">
+    <row r="8" spans="1:47">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:84">
+    <row r="9" spans="1:47">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -4848,119 +4850,8 @@
       <c r="AU9" t="s">
         <v>406</v>
       </c>
-      <c r="AV9" t="s">
-        <v>370</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>371</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>372</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>373</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>374</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>375</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>376</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>377</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>378</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>379</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>380</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>381</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>382</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>383</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>384</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>385</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>386</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>387</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>388</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>389</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>390</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>391</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>392</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>393</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>394</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>395</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>396</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>397</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>398</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>399</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>400</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>401</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>402</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>404</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>405</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:84">
+    </row>
+    <row r="10" spans="1:47">
       <c r="A10" s="4" t="s">
         <v>32</v>
       </c>
@@ -4968,13 +4859,13 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:84">
+    <row r="11" spans="1:47">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:84">
+    <row r="12" spans="1:47">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -4982,14 +4873,14 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:84">
+    <row r="13" spans="1:47">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:84">
+    <row r="14" spans="1:47">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -5003,7 +4894,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:84">
+    <row r="15" spans="1:47">
       <c r="A15" s="4" t="s">
         <v>57</v>
       </c>
@@ -5012,7 +4903,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:84">
+    <row r="16" spans="1:47">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -5451,7 +5342,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5729,7 +5620,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J50" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5997,4 +5888,566 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B191CA-C28A-F442-B166-7EE92FE5B688}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView zoomScale="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>1074</v>
+      </c>
+      <c r="C24">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1081</v>
+      </c>
+      <c r="C25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>1065</v>
+      </c>
+      <c r="C39">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F503B91-9001-564F-BA72-B91D0D7419B8}">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4058F8-EAAF-544C-9DEA-95214BC1BB2D}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFF5338-9BBB-BB48-BE68-F2C33B09337E}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="760" windowWidth="34460" windowHeight="20460" firstSheet="2" activeTab="4" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="100" yWindow="760" windowWidth="34460" windowHeight="20460" firstSheet="2" activeTab="8" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="487">
   <si>
     <t>Label</t>
   </si>
@@ -1493,6 +1493,36 @@
   </si>
   <si>
     <t>Y47.9</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1491</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>1193</t>
+  </si>
+  <si>
+    <t>1194</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>1291</t>
   </si>
 </sst>
 </file>
@@ -4604,7 +4634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
   <dimension ref="A1:AU46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="180" workbookViewId="0">
       <selection activeCell="AU9" sqref="A9:AU9"/>
     </sheetView>
   </sheetViews>
@@ -5894,8 +5924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B191CA-C28A-F442-B166-7EE92FE5B688}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A2" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6004,45 +6034,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
@@ -6052,8 +6082,11 @@
       <c r="C24">
         <v>1075</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -6063,38 +6096,50 @@
       <c r="C25">
         <v>1086</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" s="12" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="B28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C28" t="s">
+        <v>480</v>
+      </c>
+      <c r="D28" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -6158,6 +6203,9 @@
     <row r="43" spans="1:3">
       <c r="A43" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -6184,8 +6232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F503B91-9001-564F-BA72-B91D0D7419B8}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6248,11 +6296,17 @@
       <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="B7" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B8" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
@@ -6303,8 +6357,8 @@
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18">
-        <v>10</v>
+      <c r="B18" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6377,72 +6431,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -1,47 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{6D48D522-55F1-D648-B884-732CD5CCE9FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FFF5338-9BBB-BB48-BE68-F2C33B09337E}"/>
+  <xr:revisionPtr revIDLastSave="344" documentId="13_ncr:1_{0906E70C-7040-914E-8B88-49FE53B121DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705762FA-CC60-B14D-9A70-C0D6648B1797}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="760" windowWidth="34460" windowHeight="20460" firstSheet="2" activeTab="8" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="-72000" yWindow="1240" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
-    <sheet name="Include_code_icd9" sheetId="3" r:id="rId2"/>
-    <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId3"/>
-    <sheet name="Include_code_icd10" sheetId="6" r:id="rId4"/>
-    <sheet name="Exclude_code_icd10" sheetId="7" r:id="rId5"/>
-    <sheet name="Include_code_mhq" sheetId="5" r:id="rId6"/>
-    <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId7"/>
-    <sheet name="Include_code_self" sheetId="8" r:id="rId8"/>
-    <sheet name="Exclude_code_self" sheetId="9" r:id="rId9"/>
+    <sheet name="Alt_label" sheetId="10" r:id="rId2"/>
+    <sheet name="Include_code_icd9" sheetId="3" r:id="rId3"/>
+    <sheet name="Exclude_code_icd9" sheetId="2" r:id="rId4"/>
+    <sheet name="Include_code_icd10" sheetId="6" r:id="rId5"/>
+    <sheet name="Exclude_code_icd10" sheetId="7" r:id="rId6"/>
+    <sheet name="Include_code_mhq" sheetId="5" r:id="rId7"/>
+    <sheet name="Exclude_code_mhq" sheetId="4" r:id="rId8"/>
+    <sheet name="Include_code_self" sheetId="8" r:id="rId9"/>
+    <sheet name="Exclude_code_self" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="B21.0" localSheetId="3">Include_code_icd10!$B$37</definedName>
-    <definedName name="G21.0" localSheetId="4">Exclude_code_icd10!$C$9</definedName>
-    <definedName name="J44.0" localSheetId="3">Include_code_icd10!$C$36</definedName>
-    <definedName name="J44.1" localSheetId="3">Include_code_icd10!$D$36</definedName>
-    <definedName name="L21.0" localSheetId="3">Include_code_icd10!$B$45</definedName>
-    <definedName name="M15.0" localSheetId="3">Include_code_icd10!$C$40</definedName>
-    <definedName name="M15.1" localSheetId="3">Include_code_icd10!$D$40</definedName>
-    <definedName name="M15.8" localSheetId="3">Include_code_icd10!$H$40</definedName>
-    <definedName name="M17.0" localSheetId="3">Include_code_icd10!$U$40</definedName>
-    <definedName name="M17.2" localSheetId="3">Include_code_icd10!$W$40</definedName>
-    <definedName name="M17.4" localSheetId="3">Include_code_icd10!$Y$40</definedName>
-    <definedName name="M17.9" localSheetId="3">Include_code_icd10!$AA$40</definedName>
-    <definedName name="M19.2" localSheetId="3">Include_code_icd10!$AM$40</definedName>
-    <definedName name="M47.2" localSheetId="3">Include_code_icd10!$E$26</definedName>
-    <definedName name="P70.2" localSheetId="3">Include_code_icd10!$B$43</definedName>
-    <definedName name="P70.3" localSheetId="4">Exclude_code_icd10!$E$43</definedName>
+    <definedName name="B21.0" localSheetId="4">Include_code_icd10!$B$37</definedName>
+    <definedName name="F31.0" localSheetId="4">Include_code_icd10!$B$91</definedName>
+    <definedName name="F44.1" localSheetId="4">Include_code_icd10!$D$62</definedName>
+    <definedName name="F45.8" localSheetId="4">Include_code_icd10!$H$63</definedName>
+    <definedName name="F45.9" localSheetId="4">Include_code_icd10!$I$63</definedName>
+    <definedName name="F50.0" localSheetId="4">Include_code_icd10!$C$72</definedName>
+    <definedName name="G21.0" localSheetId="5">Exclude_code_icd10!$C$9</definedName>
+    <definedName name="I63.0" localSheetId="4">Include_code_icd10!$C$25</definedName>
+    <definedName name="J44.0" localSheetId="4">Include_code_icd10!$C$36</definedName>
+    <definedName name="J44.1" localSheetId="4">Include_code_icd10!$D$36</definedName>
+    <definedName name="J45.0" localSheetId="4">Include_code_icd10!$C$34</definedName>
+    <definedName name="L21.0" localSheetId="4">Include_code_icd10!$B$45</definedName>
+    <definedName name="M05.0" localSheetId="4">Include_code_icd10!$E$27</definedName>
+    <definedName name="M05.2" localSheetId="4">Include_code_icd10!$D$27</definedName>
+    <definedName name="M10.0" localSheetId="4">Include_code_icd10!$D$122</definedName>
+    <definedName name="M10.1" localSheetId="4">Include_code_icd10!$D$122</definedName>
+    <definedName name="M15.0" localSheetId="4">Include_code_icd10!$C$40</definedName>
+    <definedName name="M15.1" localSheetId="4">Include_code_icd10!$D$40</definedName>
+    <definedName name="M15.8" localSheetId="4">Include_code_icd10!$H$40</definedName>
+    <definedName name="M17.0" localSheetId="4">Include_code_icd10!$U$40</definedName>
+    <definedName name="M17.2" localSheetId="4">Include_code_icd10!$W$40</definedName>
+    <definedName name="M17.4" localSheetId="4">Include_code_icd10!$Y$40</definedName>
+    <definedName name="M17.9" localSheetId="4">Include_code_icd10!$AA$40</definedName>
+    <definedName name="M19.2" localSheetId="4">Include_code_icd10!$AM$40</definedName>
+    <definedName name="M47.2" localSheetId="4">Include_code_icd10!$E$26</definedName>
+    <definedName name="P70.2" localSheetId="4">Include_code_icd10!$B$43</definedName>
+    <definedName name="P70.3" localSheetId="5">Exclude_code_icd10!$E$43</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="848">
   <si>
     <t>Label</t>
   </si>
@@ -1523,13 +1535,1096 @@
   </si>
   <si>
     <t>1291</t>
+  </si>
+  <si>
+    <t>Alt_label</t>
+  </si>
+  <si>
+    <t>organ_alt</t>
+  </si>
+  <si>
+    <t>Healthy</t>
+  </si>
+  <si>
+    <t>0_Healthy</t>
+  </si>
+  <si>
+    <t>Blood</t>
+  </si>
+  <si>
+    <t>A_Brain</t>
+  </si>
+  <si>
+    <t>AB_Brain-Psychiatric</t>
+  </si>
+  <si>
+    <t>Dementia - Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Dementia - Vascular</t>
+  </si>
+  <si>
+    <t>Dementia - Lewy body</t>
+  </si>
+  <si>
+    <t>Dementia - Frontotemporal</t>
+  </si>
+  <si>
+    <t>Dementia - Mixed</t>
+  </si>
+  <si>
+    <t>3310</t>
+  </si>
+  <si>
+    <t>F00</t>
+  </si>
+  <si>
+    <t>F00.0</t>
+  </si>
+  <si>
+    <t>F00.1</t>
+  </si>
+  <si>
+    <t>F00.2</t>
+  </si>
+  <si>
+    <t>F00.9</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>G30.0</t>
+  </si>
+  <si>
+    <t>G30.1</t>
+  </si>
+  <si>
+    <t>G30.8</t>
+  </si>
+  <si>
+    <t>G30.9</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F01.0</t>
+  </si>
+  <si>
+    <t>F01.2</t>
+  </si>
+  <si>
+    <t>F01.8</t>
+  </si>
+  <si>
+    <t>F01.9</t>
+  </si>
+  <si>
+    <t>Lewy body dementia</t>
+  </si>
+  <si>
+    <t>Alzeimer</t>
+  </si>
+  <si>
+    <t>Vascular dementia</t>
+  </si>
+  <si>
+    <t>F01.3</t>
+  </si>
+  <si>
+    <t>Frontotemporal dementia</t>
+  </si>
+  <si>
+    <t>2904</t>
+  </si>
+  <si>
+    <t>2908</t>
+  </si>
+  <si>
+    <t>7330</t>
+  </si>
+  <si>
+    <t>Schizoaffective</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F25.0</t>
+  </si>
+  <si>
+    <t>F25.1</t>
+  </si>
+  <si>
+    <t>F25.2</t>
+  </si>
+  <si>
+    <t>F25.8</t>
+  </si>
+  <si>
+    <t>2957</t>
+  </si>
+  <si>
+    <t>Schizotypal</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>2955</t>
+  </si>
+  <si>
+    <t>Mood - Depressive episode</t>
+  </si>
+  <si>
+    <t>Mood - Recurrent depressive disorder</t>
+  </si>
+  <si>
+    <t>Mood - Persistent mood [affective] disorders</t>
+  </si>
+  <si>
+    <t>Mood - Other mood [affective] disorders</t>
+  </si>
+  <si>
+    <t>Mood - Manic episode</t>
+  </si>
+  <si>
+    <t>Mood - Bipolar affective disorder</t>
+  </si>
+  <si>
+    <t>F30.0</t>
+  </si>
+  <si>
+    <t>F30.1</t>
+  </si>
+  <si>
+    <t>F30.2</t>
+  </si>
+  <si>
+    <t>F31.0</t>
+  </si>
+  <si>
+    <t>F31.1</t>
+  </si>
+  <si>
+    <t>F31.2</t>
+  </si>
+  <si>
+    <t>F31.6</t>
+  </si>
+  <si>
+    <t>F31.7</t>
+  </si>
+  <si>
+    <t>F31.8</t>
+  </si>
+  <si>
+    <t>F31.9</t>
+  </si>
+  <si>
+    <t>F32.0</t>
+  </si>
+  <si>
+    <t>F32.1</t>
+  </si>
+  <si>
+    <t>F32.2</t>
+  </si>
+  <si>
+    <t>F32.3</t>
+  </si>
+  <si>
+    <t>F32.8</t>
+  </si>
+  <si>
+    <t>F32.9</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F33.0</t>
+  </si>
+  <si>
+    <t>F33.1</t>
+  </si>
+  <si>
+    <t>F33.2</t>
+  </si>
+  <si>
+    <t>F33.3</t>
+  </si>
+  <si>
+    <t>F33.4</t>
+  </si>
+  <si>
+    <t>F33.8</t>
+  </si>
+  <si>
+    <t>F33.9</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F34.0</t>
+  </si>
+  <si>
+    <t>F34.1</t>
+  </si>
+  <si>
+    <t>F34.8</t>
+  </si>
+  <si>
+    <t>F34.9</t>
+  </si>
+  <si>
+    <t>2969</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress Spectrum - Phobic anxiety disorders</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress Spectrum - Other anxiety disorders</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress Spectrum - OCD</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress Spectrum - Dissociative disorders</t>
+  </si>
+  <si>
+    <t>Anxiety/Stress Spectrum - Somatoform disorders</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F40.0</t>
+  </si>
+  <si>
+    <t>F40.1</t>
+  </si>
+  <si>
+    <t>F40.2</t>
+  </si>
+  <si>
+    <t>F40.8</t>
+  </si>
+  <si>
+    <t>F40.9</t>
+  </si>
+  <si>
+    <t>F41.0</t>
+  </si>
+  <si>
+    <t>F41.1</t>
+  </si>
+  <si>
+    <t>F41.2</t>
+  </si>
+  <si>
+    <t>F41.3</t>
+  </si>
+  <si>
+    <t>F41.8</t>
+  </si>
+  <si>
+    <t>F41.9</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F42.0</t>
+  </si>
+  <si>
+    <t>F42.1</t>
+  </si>
+  <si>
+    <t>F42.2</t>
+  </si>
+  <si>
+    <t>F42.8</t>
+  </si>
+  <si>
+    <t>F42.9</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F43.0</t>
+  </si>
+  <si>
+    <t>F43.1</t>
+  </si>
+  <si>
+    <t>F43.2</t>
+  </si>
+  <si>
+    <t>F43.8</t>
+  </si>
+  <si>
+    <t>F43.9</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F44.0</t>
+  </si>
+  <si>
+    <t>F44.1</t>
+  </si>
+  <si>
+    <t>F44.2</t>
+  </si>
+  <si>
+    <t>F44.3</t>
+  </si>
+  <si>
+    <t>F44.4</t>
+  </si>
+  <si>
+    <t>F44.5</t>
+  </si>
+  <si>
+    <t>F44.6</t>
+  </si>
+  <si>
+    <t>F44.7</t>
+  </si>
+  <si>
+    <t>F44.8</t>
+  </si>
+  <si>
+    <t>F44.9</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F45.0</t>
+  </si>
+  <si>
+    <t>F45.1</t>
+  </si>
+  <si>
+    <t>F45.2</t>
+  </si>
+  <si>
+    <t>F45.3</t>
+  </si>
+  <si>
+    <t>F45.4</t>
+  </si>
+  <si>
+    <t>F45.9</t>
+  </si>
+  <si>
+    <t>F48.0</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F48.1</t>
+  </si>
+  <si>
+    <t>F48.8</t>
+  </si>
+  <si>
+    <t>F48.9</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Paranoid</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Catatonic</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Postschizophrenic depression</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Simple</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Hebephrenic</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Undifferentiated</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Residual</t>
+  </si>
+  <si>
+    <t>F20.8</t>
+  </si>
+  <si>
+    <t>F20.9</t>
+  </si>
+  <si>
+    <t>F22.0</t>
+  </si>
+  <si>
+    <t>F22.8</t>
+  </si>
+  <si>
+    <t>F22.9</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F50.0</t>
+  </si>
+  <si>
+    <t>F50.1</t>
+  </si>
+  <si>
+    <t>F50.2</t>
+  </si>
+  <si>
+    <t>F50.3</t>
+  </si>
+  <si>
+    <t>F50.5</t>
+  </si>
+  <si>
+    <t>F50.8</t>
+  </si>
+  <si>
+    <t>F50.9</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F51.0</t>
+  </si>
+  <si>
+    <t>F51.2</t>
+  </si>
+  <si>
+    <t>F51.1</t>
+  </si>
+  <si>
+    <t>F51.3</t>
+  </si>
+  <si>
+    <t>F51.4</t>
+  </si>
+  <si>
+    <t>F51.5</t>
+  </si>
+  <si>
+    <t>F51.8</t>
+  </si>
+  <si>
+    <t>F51.9</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F52.0</t>
+  </si>
+  <si>
+    <t>F52.1</t>
+  </si>
+  <si>
+    <t>F52.2</t>
+  </si>
+  <si>
+    <t>F52.3</t>
+  </si>
+  <si>
+    <t>F52.4</t>
+  </si>
+  <si>
+    <t>F52.5</t>
+  </si>
+  <si>
+    <t>F52.6</t>
+  </si>
+  <si>
+    <t>F52.7</t>
+  </si>
+  <si>
+    <t>F52.8</t>
+  </si>
+  <si>
+    <t>F52.9</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F53.0</t>
+  </si>
+  <si>
+    <t>F53.1</t>
+  </si>
+  <si>
+    <t>F53.8</t>
+  </si>
+  <si>
+    <t>F53.9</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode hypomanic</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode manic w/o psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode manic w psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode mild or moderate depression</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode severe depression w/o psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode severe depression w psychotic symptoms</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - current episode mixed</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - currently in remission</t>
+  </si>
+  <si>
+    <t>Bipolar affective disorder Subtype - Other/Unspecified</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform - Schizophrenia</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - Phobic anxiety disorders</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - Other anxiety disorders</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - OCD</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - Reactive</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - Dissociative disorders</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - Somatoform disorders</t>
+  </si>
+  <si>
+    <t>Stress/Somatoform  - Other neurotic disorders</t>
+  </si>
+  <si>
+    <t>Psychosis  - Schizotypal disorder</t>
+  </si>
+  <si>
+    <t>Psychosis  - Persistent delusional disorders</t>
+  </si>
+  <si>
+    <t>Psychosis  - Acute and transient psychotic disorders</t>
+  </si>
+  <si>
+    <t>Psychosis  - Induced delusional disorder</t>
+  </si>
+  <si>
+    <t>Psychosis  - Schizoaffective disorders</t>
+  </si>
+  <si>
+    <t>Psychosis  - Other/unspecified nonorganic psychotic disorders</t>
+  </si>
+  <si>
+    <t>Physiological - Eating disorders</t>
+  </si>
+  <si>
+    <t>Physiological - Nonorganic sleep disorders</t>
+  </si>
+  <si>
+    <t>Physiological - Nonorganic sexual dysfunction</t>
+  </si>
+  <si>
+    <t>Physiological - Puerperium-linked</t>
+  </si>
+  <si>
+    <t>Physiological - dirsorder/disease-linked</t>
+  </si>
+  <si>
+    <t>Physiological - Abuse of non-dependence-producing substances</t>
+  </si>
+  <si>
+    <t>Physiological - Unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other anxiety disorders Subtype - Panic disorder </t>
+  </si>
+  <si>
+    <t>Other anxiety disorders Subtype - Generalized anxiety disorder</t>
+  </si>
+  <si>
+    <t>Other anxiety disorders Subtype - Mixed anxiety and depressive disorder</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Anorexia nervosa</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Atypical anorexia nervosa</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Bulimia nervosa</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Atypical bulimia nervosa</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Overeating associated with other psychological disturbances</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Vomiting associated with other psychological disturbances</t>
+  </si>
+  <si>
+    <t>Eating disorders Subtype - Other/Unspecified</t>
+  </si>
+  <si>
+    <t>Developmental disorders - Childhood autism</t>
+  </si>
+  <si>
+    <t>Developmental disorders - Atypical autism</t>
+  </si>
+  <si>
+    <t>Developmental disorders - Rett syndrome</t>
+  </si>
+  <si>
+    <t>Developmental disorders - Other childhood disintegrative disorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developmental disorders - Overactive disorder </t>
+  </si>
+  <si>
+    <t>Developmental disorders - Asperger syndrome</t>
+  </si>
+  <si>
+    <t>Developmental disorders - Other/Unspecified</t>
+  </si>
+  <si>
+    <t>Schizophrenia Subtype - Other/Unspecified</t>
+  </si>
+  <si>
+    <t>Other anxiety disorders Subtype - Other mixed/Other Specified/Unspecified</t>
+  </si>
+  <si>
+    <t>F84.0</t>
+  </si>
+  <si>
+    <t>F84.1</t>
+  </si>
+  <si>
+    <t>F84.2</t>
+  </si>
+  <si>
+    <t>F84.3</t>
+  </si>
+  <si>
+    <t>F84.4</t>
+  </si>
+  <si>
+    <t>F84.5</t>
+  </si>
+  <si>
+    <t>F84.8</t>
+  </si>
+  <si>
+    <t>F84.9</t>
+  </si>
+  <si>
+    <t>Psychosis - Schizophrenia</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F20.0</t>
+  </si>
+  <si>
+    <t>F20.1</t>
+  </si>
+  <si>
+    <t>F20.2</t>
+  </si>
+  <si>
+    <t>F20.3</t>
+  </si>
+  <si>
+    <t>F20.4</t>
+  </si>
+  <si>
+    <t>F20.5</t>
+  </si>
+  <si>
+    <t>F20.6</t>
+  </si>
+  <si>
+    <t>F23.0</t>
+  </si>
+  <si>
+    <t>F23.1</t>
+  </si>
+  <si>
+    <t>F23.2</t>
+  </si>
+  <si>
+    <t>F23.3</t>
+  </si>
+  <si>
+    <t>F23.8</t>
+  </si>
+  <si>
+    <t>F23.9</t>
+  </si>
+  <si>
+    <t>J45</t>
+  </si>
+  <si>
+    <t>J46</t>
+  </si>
+  <si>
+    <t>Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>K85</t>
+  </si>
+  <si>
+    <t>J45.0</t>
+  </si>
+  <si>
+    <t>J45.1</t>
+  </si>
+  <si>
+    <t>J45.8</t>
+  </si>
+  <si>
+    <t>J45.9</t>
+  </si>
+  <si>
+    <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>E11.0</t>
+  </si>
+  <si>
+    <t>E11.1</t>
+  </si>
+  <si>
+    <t>E11.2</t>
+  </si>
+  <si>
+    <t>E11.3</t>
+  </si>
+  <si>
+    <t>E11.4</t>
+  </si>
+  <si>
+    <t>E11.5</t>
+  </si>
+  <si>
+    <t>E11.6</t>
+  </si>
+  <si>
+    <t>E11.7</t>
+  </si>
+  <si>
+    <t>E11.8</t>
+  </si>
+  <si>
+    <t>E11.9</t>
+  </si>
+  <si>
+    <t>E10.0</t>
+  </si>
+  <si>
+    <t>E10.1</t>
+  </si>
+  <si>
+    <t>E10.2</t>
+  </si>
+  <si>
+    <t>E10.3</t>
+  </si>
+  <si>
+    <t>E10.4</t>
+  </si>
+  <si>
+    <t>E10.5</t>
+  </si>
+  <si>
+    <t>E10.6</t>
+  </si>
+  <si>
+    <t>E10.7</t>
+  </si>
+  <si>
+    <t>E10.8</t>
+  </si>
+  <si>
+    <t>E10.9</t>
+  </si>
+  <si>
+    <t>K85.0</t>
+  </si>
+  <si>
+    <t>K85.1</t>
+  </si>
+  <si>
+    <t>K85.2</t>
+  </si>
+  <si>
+    <t>K85.3</t>
+  </si>
+  <si>
+    <t>K85.8</t>
+  </si>
+  <si>
+    <t>K85.9</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M05.1</t>
+  </si>
+  <si>
+    <t>M05.3</t>
+  </si>
+  <si>
+    <t>M05.8</t>
+  </si>
+  <si>
+    <t>M05.2</t>
+  </si>
+  <si>
+    <t>M05.9</t>
+  </si>
+  <si>
+    <t>J99.0</t>
+  </si>
+  <si>
+    <t>L40</t>
+  </si>
+  <si>
+    <t>L40.0</t>
+  </si>
+  <si>
+    <t>L40.1</t>
+  </si>
+  <si>
+    <t>L40.2</t>
+  </si>
+  <si>
+    <t>L40.3</t>
+  </si>
+  <si>
+    <t>L40.4</t>
+  </si>
+  <si>
+    <t>L40.5</t>
+  </si>
+  <si>
+    <t>L40.8</t>
+  </si>
+  <si>
+    <t>L40.9</t>
+  </si>
+  <si>
+    <t>Inflammatory bowel disease</t>
+  </si>
+  <si>
+    <t>K50</t>
+  </si>
+  <si>
+    <t>K50.0</t>
+  </si>
+  <si>
+    <t>K50.1</t>
+  </si>
+  <si>
+    <t>K50.8</t>
+  </si>
+  <si>
+    <t>K50.9</t>
+  </si>
+  <si>
+    <t>K51</t>
+  </si>
+  <si>
+    <t>K51.0</t>
+  </si>
+  <si>
+    <t>K51.2</t>
+  </si>
+  <si>
+    <t>K51.3</t>
+  </si>
+  <si>
+    <t>K51.4</t>
+  </si>
+  <si>
+    <t>K51.5</t>
+  </si>
+  <si>
+    <t>K51.8</t>
+  </si>
+  <si>
+    <t>K51.9</t>
+  </si>
+  <si>
+    <t>Hypothyroidism</t>
+  </si>
+  <si>
+    <t>E89.0</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E03.0</t>
+  </si>
+  <si>
+    <t>E03.1</t>
+  </si>
+  <si>
+    <t>E03.3</t>
+  </si>
+  <si>
+    <t>E03.2</t>
+  </si>
+  <si>
+    <t>O24.1</t>
+  </si>
+  <si>
+    <t>F90.0</t>
+  </si>
+  <si>
+    <t>ASD (Autism)</t>
+  </si>
+  <si>
+    <t>Bipolor disorder GWAS</t>
+  </si>
+  <si>
+    <t>acute coronary syndrome</t>
+  </si>
+  <si>
+    <t>chronic stable angina</t>
+  </si>
+  <si>
+    <t>coronary stenosis</t>
+  </si>
+  <si>
+    <t>Eczema</t>
+  </si>
+  <si>
+    <t>L20</t>
+  </si>
+  <si>
+    <t>L20.8</t>
+  </si>
+  <si>
+    <t>L20.9</t>
+  </si>
+  <si>
+    <t>Atopic dermatitis</t>
+  </si>
+  <si>
+    <t>B00.0</t>
+  </si>
+  <si>
+    <t>Gout</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M10.0</t>
+  </si>
+  <si>
+    <t>M10.1</t>
+  </si>
+  <si>
+    <t>I63</t>
+  </si>
+  <si>
+    <t>I63.0</t>
+  </si>
+  <si>
+    <t>I63.1</t>
+  </si>
+  <si>
+    <t>I63.2</t>
+  </si>
+  <si>
+    <t>I63.3</t>
+  </si>
+  <si>
+    <t>I63.4</t>
+  </si>
+  <si>
+    <t>I63.5</t>
+  </si>
+  <si>
+    <t>I63.8</t>
+  </si>
+  <si>
+    <t>I63.9</t>
+  </si>
+  <si>
+    <t>I63.6</t>
+  </si>
+  <si>
+    <t>I64</t>
+  </si>
+  <si>
+    <t>I69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1615,6 +2710,50 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1641,7 +2780,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1649,12 +2788,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1682,6 +2836,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1698,6 +2868,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1997,10 +3171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F68461-33BF-1243-84F8-416A85DF0858}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A90" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3034,6 +4208,652 @@
         <v>116</v>
       </c>
     </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D47" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D48" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="D50" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D59" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="D93" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D94" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E120" t="s">
+        <v>45</v>
+      </c>
+      <c r="F120" t="s">
+        <v>823</v>
+      </c>
+      <c r="G120" t="s">
+        <v>824</v>
+      </c>
+      <c r="H120" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R46">
     <sortCondition ref="B2:B46"/>
@@ -3041,15 +4861,1804 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F503B91-9001-564F-BA72-B91D0D7419B8}">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A110" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A661A7B0-6B12-E648-B675-65F23693028A}">
+  <dimension ref="A1:F124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:A123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="F116" s="17"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="F117" s="17"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="F118" s="17"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="F119" s="17"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F120" s="17"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="F121" s="17"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="F122" s="17"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F123" s="17"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E15FE0-283C-E243-B347-54FE2E84EFF2}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="O22" sqref="A22:O22"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3223,6 +6832,12 @@
       <c r="F16" t="s">
         <v>251</v>
       </c>
+      <c r="G16">
+        <v>2961</v>
+      </c>
+      <c r="H16">
+        <v>2966</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="4" t="s">
@@ -3331,10 +6946,30 @@
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="1">
+        <v>430</v>
+      </c>
+      <c r="C25" s="1">
+        <v>431</v>
+      </c>
+      <c r="D25" s="26">
+        <v>4330</v>
+      </c>
+      <c r="E25" s="26">
+        <v>4331</v>
+      </c>
+      <c r="F25">
+        <v>4339</v>
+      </c>
+      <c r="G25" s="26">
+        <v>432</v>
+      </c>
+      <c r="H25">
+        <v>432</v>
+      </c>
+      <c r="I25">
+        <v>434</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="4" t="s">
@@ -3525,11 +7160,8 @@
       <c r="A44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" t="s">
-        <v>221</v>
+      <c r="B44" s="18" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3546,6 +7178,460 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>520</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B118" s="17"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B119" s="17"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="B121" s="17"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="B122" s="17"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" s="17"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O46">
@@ -3556,12 +7642,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C395F5C-21C5-E243-9639-329C23993E2C}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3832,9 +7918,18 @@
       <c r="B25" s="8">
         <v>9920</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="C25" s="1">
+        <v>4330</v>
+      </c>
+      <c r="D25" s="26">
+        <v>4331</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4339</v>
+      </c>
+      <c r="F25">
+        <v>4349</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
@@ -4015,6 +8110,391 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
@@ -4025,17 +8505,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4C7C3-CF9C-7644-8AB7-9F7315D08EEE}">
-  <dimension ref="A1:AS46"/>
+  <dimension ref="A1:AS123"/>
   <sheetViews>
-    <sheetView topLeftCell="AN23" zoomScale="125" workbookViewId="0">
-      <selection activeCell="AV56" sqref="AV56"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
@@ -4142,7 +8622,9 @@
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
@@ -4199,7 +8681,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:16">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -4209,24 +8691,64 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="C18" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="L18" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
@@ -4234,13 +8756,13 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
@@ -4250,28 +8772,57 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="B25" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="J25" t="s">
+        <v>844</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4297,18 +8848,39 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:16">
       <c r="A27" s="12" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="B27" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
+        <v>782</v>
+      </c>
+      <c r="D27" t="s">
+        <v>785</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="F27" t="s">
+        <v>784</v>
+      </c>
+      <c r="G27" t="s">
+        <v>786</v>
+      </c>
+      <c r="H27" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
         <v>30</v>
       </c>
@@ -4317,7 +8889,7 @@
       <c r="D29" s="1"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
         <v>88</v>
       </c>
@@ -4328,7 +8900,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -4337,7 +8909,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -4356,7 +8928,24 @@
       <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="B34" t="s">
+        <v>744</v>
+      </c>
+      <c r="C34" t="s">
+        <v>750</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="E34" t="s">
+        <v>752</v>
+      </c>
+      <c r="F34" t="s">
+        <v>753</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="35" spans="1:45">
       <c r="A35" s="4" t="s">
@@ -4621,21 +9210,1287 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:45">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="I47" s="18" t="s">
+        <v>507</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>512</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="G53" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G56" s="18" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>579</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>582</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>595</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>597</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>599</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>603</v>
+      </c>
+      <c r="G62" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="K62" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="L62" s="18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>614</v>
+      </c>
+      <c r="G63" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="H63" t="s">
+        <v>616</v>
+      </c>
+      <c r="I63" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="I65" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="K65" s="18" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" t="s">
+        <v>640</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>641</v>
+      </c>
+      <c r="E72" t="s">
+        <v>642</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="G72" t="s">
+        <v>462</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="I72" t="s">
+        <v>645</v>
+      </c>
+      <c r="J72" s="18" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>649</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>661</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>662</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="K74" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="L74" s="18" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>667</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="E75" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="B76" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B77" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="B78" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B79" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="B82" t="s">
+        <v>585</v>
+      </c>
+      <c r="C82" t="s">
+        <v>584</v>
+      </c>
+      <c r="D82" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C90" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="B91" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B92" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="B93" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="B94" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+      <c r="B95" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B96" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="B97" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B98" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="B99" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="B100" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="B101" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="B102" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="B103" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="B104" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="B105" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="B106" t="s">
+        <v>645</v>
+      </c>
+      <c r="C106" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="B107" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="B108" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="B109" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="B110" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="B111" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="B112" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="B113" t="s">
+        <v>727</v>
+      </c>
+      <c r="C113" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="B114" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="M114" s="23" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>788</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>789</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>798</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>800</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="H116" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="L116" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="M116" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="N116" s="18" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>813</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B118" t="s">
+        <v>721</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="F119" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="J119" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="L119" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="M119" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="N119" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="O119" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="P119" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q119" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="R119" s="18" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="18"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="18"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="18"/>
+      <c r="Q120" s="18"/>
+      <c r="R120" s="18"/>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>828</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>829</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>833</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="H123" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="I123" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="J123" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="K123" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="L123" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="M123" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="N123" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="O123" s="18" t="s">
+        <v>527</v>
+      </c>
+      <c r="P123" s="18" t="s">
+        <v>528</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
     <sortCondition ref="A2:A46"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1A1CFA-EA26-0A45-AB9C-3D3BEC3C727E}">
-  <dimension ref="A1:AU46"/>
+  <dimension ref="A1:AU123"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="180" workbookViewId="0">
-      <selection activeCell="AU9" sqref="A9:AU9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5095,6 +10950,12 @@
       <c r="E25" t="s">
         <v>291</v>
       </c>
+      <c r="F25" t="s">
+        <v>845</v>
+      </c>
+      <c r="G25" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
@@ -5358,6 +11219,472 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="H114" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="I114" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>772</v>
+      </c>
+      <c r="K114" s="18" t="s">
+        <v>773</v>
+      </c>
+      <c r="L114" s="18" t="s">
+        <v>774</v>
+      </c>
+      <c r="M114" s="18" t="s">
+        <v>749</v>
+      </c>
+      <c r="N114" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="O114" s="18" t="s">
+        <v>776</v>
+      </c>
+      <c r="P114" s="18" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q114" s="18" t="s">
+        <v>778</v>
+      </c>
+      <c r="R114" s="18" t="s">
+        <v>779</v>
+      </c>
+      <c r="S114" s="18" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>790</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="F115" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>795</v>
+      </c>
+      <c r="H115" s="18" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="C117" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
@@ -5367,12 +11694,714 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8016D5CD-B4CE-1540-83E9-1BF3C2D05B33}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A106" zoomScale="93" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="92.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B72">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="B100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="17" t="s">
+        <v>707</v>
+      </c>
+      <c r="B102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
+    <sortCondition ref="A2:A46"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5480,9 +12509,6 @@
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
@@ -5493,6 +12519,9 @@
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
@@ -5508,9 +12537,6 @@
       <c r="A21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
@@ -5635,6 +12661,411 @@
     <row r="46" spans="1:1">
       <c r="A46" s="4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5645,12 +13076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A118984D-C662-2241-AA55-5D3B89E5856E}">
-  <dimension ref="A1:H46"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B191CA-C28A-F442-B166-7EE92FE5B688}">
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView zoomScale="60" workbookViewId="0">
-      <selection activeCell="J50" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5759,281 +13190,6 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
-    <sortCondition ref="A2:A46"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B191CA-C28A-F442-B166-7EE92FE5B688}">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>55</v>
@@ -6223,291 +13379,409 @@
         <v>5</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F503B91-9001-564F-BA72-B91D0D7419B8}">
-  <dimension ref="A1:H46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="48.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="17" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="17" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="17" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="17" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="17" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="17" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="17" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="17" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="17" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="17" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="17" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="17" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="17" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="17" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="17" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="17" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="17" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="17" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="17" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="17" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="17" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="17" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="17" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="17" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="17" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="17" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="17" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="17" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="17" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="17" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="17" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="17" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="17" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="17" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="17" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="17" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{CA38A9C9-03FC-6C4C-AEC2-6522E489B846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72000" yWindow="1240" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>

--- a/Inputs/Diagnosis/Diseases_of_interest.xlsx
+++ b/Inputs/Diagnosis/Diseases_of_interest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mq669/Dropbox (Partners HealthCare)/DOCUMENTS/POSTDOC_MNC/NHMRC Investigator grant/DATA MANAGEMENT/HETEROGENEITY2/Heterogeneity/Inputs/Diagnosis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unimelbcloud-my.sharepoint.com/personal/hjameei_student_unimelb_edu_au/Documents/PhD research/UK Biobank/Heterogeneity/Inputs/Diagnosis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86456291-690D-A145-B79D-1AD3C73E647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{86456291-690D-A145-B79D-1AD3C73E647F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0EBDD91-BE96-534A-92CC-EFD8892974A7}"/>
   <bookViews>
-    <workbookView xWindow="36560" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{F85C8D89-C5F4-9242-8168-3FF0EC4F5C59}"/>
   </bookViews>
   <sheets>
     <sheet name="Include_desc" sheetId="1" r:id="rId1"/>
@@ -6447,8 +6447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A661A7B0-6B12-E648-B675-65F23693028A}">
   <dimension ref="A1:BK160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13281,7 +13281,9 @@
       <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="16" t="s">
         <v>21</v>
